--- a/biology/Zoologie/Herichthys/Herichthys.xlsx
+++ b/biology/Zoologie/Herichthys/Herichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herichthys est un genre de poissons de la famille des Cichlidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Considéré comme synonyme de Cichlasoma pendant plusieurs décennies, Herichthys compte actuellement une dizaine d'espèces, toutes originaires d'Amérique centrale.
 </t>
@@ -542,18 +556,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (25 janv. 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (25 janv. 2017) :
 Herichthys carpintis (Jordan et Snyder, 1899) ;
 Herichthys cyanoguttatus Baird et Girard, 1854 ;
 Herichthys deppii (Heckel, 1840) ;
 Herichthys minckleyi (Kornfield et Taylor, 1983) ;
 Herichthys tamasopoensis Artigas Azas, 1993 ;
 Herichthys tepehua De la Maza-Benignos, Ornelas-García, Lozano-Vilano, García-Ramírez et Doadrio, 2014?
-Selon World Register of Marine Species                               (25 janv. 2017)[2] :
+Selon World Register of Marine Species                               (25 janv. 2017) :
 Herichthys pantostictus (Taylor et Miller, 1983).
-Selon ITIS      (25 janv. 2017)[3] (non mis à jour depuis 2004) :
+Selon ITIS      (25 janv. 2017) (non mis à jour depuis 2004) :
 Herichthys bartoni (Bean, 1892) ;
 Herichthys carpintis (Jordan et Snyder, 1899) ;
 Herichthys cyanoguttatum Baird et Girard, 1854 ;
@@ -565,9 +581,9 @@
 Herichthys steindachneri (Jordan et Snyder, 1899) ;
 Herichthys tamasopoensis Artigas Azas, 1993.
 Plusieurs autres espèces ont été proposées récemment, ainsi :
-Herichthys pratinus (De la Maza Benignos et Lozano-Vilano, 2013)[4] ;
-Herichthys pame (De la Maza Benignos et Lozano-Vilano, 2013)[4] ;
-Herichthys molango (De la Maza Benignos et Lozano-Vilano, 2013)[4]</t>
+Herichthys pratinus (De la Maza Benignos et Lozano-Vilano, 2013) ;
+Herichthys pame (De la Maza Benignos et Lozano-Vilano, 2013) ;
+Herichthys molango (De la Maza Benignos et Lozano-Vilano, 2013)</t>
         </is>
       </c>
     </row>
